--- a/Welder_Head/Calcs/2022_Apr_20_MD_MIG_Welder_Calcs.xlsx
+++ b/Welder_Head/Calcs/2022_Apr_20_MD_MIG_Welder_Calcs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\HelixWAMP\Welder_Head\Calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7BB7E-88B7-4910-9069-E7CD2008ABD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B078D5-DB9B-4E5B-BF98-5520A61D76FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19920" windowHeight="10943" xr2:uid="{5A7BED5F-D3CD-4341-93E3-80FD8862F180}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19920" windowHeight="10943" activeTab="1" xr2:uid="{5A7BED5F-D3CD-4341-93E3-80FD8862F180}"/>
   </bookViews>
   <sheets>
     <sheet name="Swing_Arm_Torque" sheetId="1" r:id="rId1"/>
+    <sheet name="Resistance Calcs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -58,12 +59,48 @@
   </si>
   <si>
     <t>N-cm</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>OD (mm)</t>
+  </si>
+  <si>
+    <t>ID (mm)</t>
+  </si>
+  <si>
+    <t>Length (in)</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Net Area (mm2)</t>
+  </si>
+  <si>
+    <t>Resistance (Ohms)</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Max Weld Amps</t>
+  </si>
+  <si>
+    <t>V drop</t>
+  </si>
+  <si>
+    <t>Power Loss (I2*r) (W)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,12 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA0F7F-5535-4AAB-9855-38E5703A3A19}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +607,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86A21A4-4259-4628-B05C-B206E44AB653}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="16.53125" customWidth="1"/>
+    <col min="8" max="8" width="18.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>3.14159*(C3*C3/4-D3*D3/4)</f>
+        <v>78.539749999999998</v>
+      </c>
+      <c r="F3">
+        <v>1.3271999999999999E-4</v>
+      </c>
+      <c r="G3">
+        <f>$B$1*F3</f>
+        <v>1.3271999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <f>$B$1*$B$1*F3</f>
+        <v>1.3271999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20.57</v>
+      </c>
+      <c r="E4" s="3">
+        <f>3.14159*(C4*C4/4-D4*D4/4)</f>
+        <v>174.38581245224995</v>
+      </c>
+      <c r="F4">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G5" si="0">$B$1*F4</f>
+        <v>3.95E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="1">$B$1*$B$1*F4</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f>3.14159*(C5*C5/4-D5*D5/4)</f>
+        <v>174.366098975</v>
+      </c>
+      <c r="F5">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.95E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>